--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.08740193609999999</v>
+        <v>0.5483927355226667</v>
       </c>
       <c r="R2">
-        <v>0.7866174249</v>
+        <v>4.935534619704</v>
       </c>
       <c r="S2">
-        <v>2.767922511996296E-05</v>
+        <v>0.000187658900976797</v>
       </c>
       <c r="T2">
-        <v>2.767922511996296E-05</v>
+        <v>0.000187658900976797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.0401103363</v>
+        <v>0.02204374141955556</v>
       </c>
       <c r="R3">
-        <v>0.3609930267</v>
+        <v>0.198393672776</v>
       </c>
       <c r="S3">
-        <v>1.270249925373361E-05</v>
+        <v>7.543324373667807E-06</v>
       </c>
       <c r="T3">
-        <v>1.270249925373361E-05</v>
+        <v>7.543324373667807E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>55.04004888165002</v>
+        <v>28.05926074148022</v>
       </c>
       <c r="R4">
-        <v>495.3604399348501</v>
+        <v>252.533346673322</v>
       </c>
       <c r="S4">
-        <v>0.01743057387042204</v>
+        <v>0.009601823094809985</v>
       </c>
       <c r="T4">
-        <v>0.01743057387042204</v>
+        <v>0.009601823094809985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>1.469959793175</v>
+        <v>0.3991796575259999</v>
       </c>
       <c r="R5">
-        <v>13.229638138575</v>
+        <v>3.592616917733999</v>
       </c>
       <c r="S5">
-        <v>0.0004655199855759835</v>
+        <v>0.0001365984831148937</v>
       </c>
       <c r="T5">
-        <v>0.0004655199855759835</v>
+        <v>0.0001365984831148937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>57.24156904395</v>
+        <v>38.74994254721778</v>
       </c>
       <c r="R6">
-        <v>515.1741213955499</v>
+        <v>348.74948292496</v>
       </c>
       <c r="S6">
-        <v>0.0181277709223125</v>
+        <v>0.01326015309884489</v>
       </c>
       <c r="T6">
-        <v>0.0181277709223125</v>
+        <v>0.01326015309884489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>74.24178737040002</v>
+        <v>11.57372496176867</v>
       </c>
       <c r="R7">
-        <v>668.1760863336001</v>
+        <v>104.163524655918</v>
       </c>
       <c r="S7">
-        <v>0.02351155177595345</v>
+        <v>0.003960505611846236</v>
       </c>
       <c r="T7">
-        <v>0.02351155177595345</v>
+        <v>0.003960505611846236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.02672324017288889</v>
+        <v>0.3050919510546667</v>
       </c>
       <c r="R8">
-        <v>0.240509161556</v>
+        <v>2.745827559492</v>
       </c>
       <c r="S8">
-        <v>8.462954182547331E-06</v>
+        <v>0.0001044018575067705</v>
       </c>
       <c r="T8">
-        <v>8.462954182547331E-06</v>
+        <v>0.0001044018575067705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.01226378039422222</v>
@@ -1013,10 +1013,10 @@
         <v>0.110374023548</v>
       </c>
       <c r="S9">
-        <v>3.883803420156331E-06</v>
+        <v>4.196641205334509E-06</v>
       </c>
       <c r="T9">
-        <v>3.883803420156331E-06</v>
+        <v>4.196641205334509E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>16.828556792026</v>
+        <v>15.61044494254789</v>
       </c>
       <c r="R10">
-        <v>151.457011128234</v>
+        <v>140.494004482931</v>
       </c>
       <c r="S10">
-        <v>0.005329417546970902</v>
+        <v>0.005341863142817387</v>
       </c>
       <c r="T10">
-        <v>0.005329417546970902</v>
+        <v>0.005341863142817386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>0.4494418585025556</v>
+        <v>0.222078982173</v>
       </c>
       <c r="R11">
-        <v>4.044976726523</v>
+        <v>1.998710839557</v>
       </c>
       <c r="S11">
-        <v>0.0001423332586773987</v>
+        <v>7.59949850263987E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001423332586773988</v>
+        <v>7.59949850263987E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>17.50167405541578</v>
+        <v>21.55808202623112</v>
       </c>
       <c r="R12">
-        <v>157.515066498742</v>
+        <v>194.02273823608</v>
       </c>
       <c r="S12">
-        <v>0.00554258632900088</v>
+        <v>0.007377132697343978</v>
       </c>
       <c r="T12">
-        <v>0.00554258632900088</v>
+        <v>0.007377132697343977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>22.69950991124267</v>
+        <v>6.438907922787667</v>
       </c>
       <c r="R13">
-        <v>204.295589201184</v>
+        <v>57.950171305089</v>
       </c>
       <c r="S13">
-        <v>0.007188683374556464</v>
+        <v>0.002203381456410962</v>
       </c>
       <c r="T13">
-        <v>0.007188683374556464</v>
+        <v>0.002203381456410961</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.04825968512355555</v>
+        <v>1.107306251525333</v>
       </c>
       <c r="R14">
-        <v>0.434337166112</v>
+        <v>9.965756263728</v>
       </c>
       <c r="S14">
-        <v>1.528330776591827E-05</v>
+        <v>0.0003789179920626283</v>
       </c>
       <c r="T14">
-        <v>1.528330776591827E-05</v>
+        <v>0.0003789179920626283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.02214724623288889</v>
+        <v>0.04451038662577778</v>
       </c>
       <c r="R15">
-        <v>0.199325216096</v>
+        <v>0.400593479632</v>
       </c>
       <c r="S15">
-        <v>7.013787584362028E-06</v>
+        <v>1.52313655801528E-05</v>
       </c>
       <c r="T15">
-        <v>7.013787584362029E-06</v>
+        <v>1.52313655801528E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>30.39080764955201</v>
+        <v>56.65683153626711</v>
       </c>
       <c r="R16">
-        <v>273.517268845968</v>
+        <v>509.9114838264039</v>
       </c>
       <c r="S16">
-        <v>0.009624432181307738</v>
+        <v>0.01938785481684041</v>
       </c>
       <c r="T16">
-        <v>0.009624432181307738</v>
+        <v>0.0193878548168404</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.8116501753662223</v>
+        <v>0.8060174791319998</v>
       </c>
       <c r="R17">
-        <v>7.304851578296001</v>
+        <v>7.254157312187998</v>
       </c>
       <c r="S17">
-        <v>0.0002570406208955717</v>
+        <v>0.0002758175747128358</v>
       </c>
       <c r="T17">
-        <v>0.0002570406208955718</v>
+        <v>0.0002758175747128358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>31.60639479288711</v>
+        <v>78.24329326296889</v>
       </c>
       <c r="R18">
-        <v>284.457553135984</v>
+        <v>704.1896393667199</v>
       </c>
       <c r="S18">
-        <v>0.01000939516604996</v>
+        <v>0.02677469899111579</v>
       </c>
       <c r="T18">
-        <v>0.01000939516604996</v>
+        <v>0.02677469899111578</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>40.99320268381867</v>
+        <v>23.36948900569733</v>
       </c>
       <c r="R19">
-        <v>368.938824154368</v>
+        <v>210.325401051276</v>
       </c>
       <c r="S19">
-        <v>0.0129820932590724</v>
+        <v>0.007996992555013956</v>
       </c>
       <c r="T19">
-        <v>0.01298209325907241</v>
+        <v>0.007996992555013955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.01691459901333333</v>
+        <v>0.049563706276</v>
       </c>
       <c r="R20">
-        <v>0.15223139112</v>
+        <v>0.446073356484</v>
       </c>
       <c r="S20">
-        <v>5.356666165475902E-06</v>
+        <v>1.696060149160473E-05</v>
       </c>
       <c r="T20">
-        <v>5.356666165475902E-06</v>
+        <v>1.696060149160473E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.007762416773333333</v>
+        <v>0.001992312177333333</v>
       </c>
       <c r="R21">
-        <v>0.06986175096</v>
+        <v>0.017930809596</v>
       </c>
       <c r="S21">
-        <v>2.458271417445979E-06</v>
+        <v>6.817652557791942E-07</v>
       </c>
       <c r="T21">
-        <v>2.458271417445979E-06</v>
+        <v>6.817652557791942E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>10.65171320052</v>
+        <v>2.535994493776333</v>
       </c>
       <c r="R22">
-        <v>95.86541880468002</v>
+        <v>22.823950443987</v>
       </c>
       <c r="S22">
-        <v>0.003373279594780903</v>
+        <v>0.0008678122607362748</v>
       </c>
       <c r="T22">
-        <v>0.003373279594780903</v>
+        <v>0.0008678122607362748</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>0.2844763122733334</v>
+        <v>0.03607783622099999</v>
       </c>
       <c r="R23">
-        <v>2.56028681046</v>
+        <v>0.324700525989</v>
       </c>
       <c r="S23">
-        <v>9.009049730547648E-05</v>
+        <v>1.234576364036081E-05</v>
       </c>
       <c r="T23">
-        <v>9.009049730547649E-05</v>
+        <v>1.234576364036081E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>11.07776589942667</v>
+        <v>3.502217746906667</v>
       </c>
       <c r="R24">
-        <v>99.69989309483999</v>
+        <v>31.51995972216</v>
       </c>
       <c r="S24">
-        <v>0.003508205765667012</v>
+        <v>0.001198451931970887</v>
       </c>
       <c r="T24">
-        <v>0.003508205765667012</v>
+        <v>0.001198451931970887</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>14.36776025152</v>
+        <v>1.046032646617</v>
       </c>
       <c r="R25">
-        <v>129.30984226368</v>
+        <v>9.414293819553</v>
       </c>
       <c r="S25">
-        <v>0.004550110537785648</v>
+        <v>0.000357950286600547</v>
       </c>
       <c r="T25">
-        <v>0.004550110537785648</v>
+        <v>0.000357950286600547</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>1.226204531231111</v>
+        <v>17.79294655384266</v>
       </c>
       <c r="R26">
-        <v>11.03584078108</v>
+        <v>160.136518984584</v>
       </c>
       <c r="S26">
-        <v>0.0003883253938932433</v>
+        <v>0.006088710843790876</v>
       </c>
       <c r="T26">
-        <v>0.0003883253938932433</v>
+        <v>0.006088710843790876</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.5627275357377778</v>
+        <v>0.7152230281662222</v>
       </c>
       <c r="R27">
-        <v>5.06454782164</v>
+        <v>6.437007253496</v>
       </c>
       <c r="S27">
-        <v>0.0001782095779327703</v>
+        <v>0.0002447478945742204</v>
       </c>
       <c r="T27">
-        <v>0.0001782095779327703</v>
+        <v>0.0002447478945742204</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>772.1837793231801</v>
+        <v>910.4003287674068</v>
       </c>
       <c r="R28">
-        <v>6949.654013908621</v>
+        <v>8193.60295890666</v>
       </c>
       <c r="S28">
-        <v>0.2445420503890887</v>
+        <v>0.3115371777902494</v>
       </c>
       <c r="T28">
-        <v>0.2445420503890887</v>
+        <v>0.3115371777902494</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>20.62278525565445</v>
+        <v>12.951634570746</v>
       </c>
       <c r="R29">
-        <v>185.60506730089</v>
+        <v>116.564711136714</v>
       </c>
       <c r="S29">
-        <v>0.006531007677436477</v>
+        <v>0.004432023533431407</v>
       </c>
       <c r="T29">
-        <v>0.006531007677436478</v>
+        <v>0.004432023533431407</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>803.0699829825621</v>
+        <v>1257.266210957351</v>
       </c>
       <c r="R30">
-        <v>7227.62984684306</v>
+        <v>11315.39589861616</v>
       </c>
       <c r="S30">
-        <v>0.2543233689998221</v>
+        <v>0.4302339912629393</v>
       </c>
       <c r="T30">
-        <v>0.2543233689998221</v>
+        <v>0.4302339912629393</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>1041.574364853014</v>
+        <v>375.5167717117086</v>
       </c>
       <c r="R31">
-        <v>9374.16928367712</v>
+        <v>3379.650945405378</v>
       </c>
       <c r="S31">
-        <v>0.3298550651207943</v>
+        <v>0.128501090756811</v>
       </c>
       <c r="T31">
-        <v>0.3298550651207943</v>
+        <v>0.128501090756811</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>0.06156717862222222</v>
+        <v>0.3921407266613334</v>
       </c>
       <c r="R32">
-        <v>0.5541046076</v>
+        <v>3.529266539952</v>
       </c>
       <c r="S32">
-        <v>1.949764356633583E-05</v>
+        <v>0.0001341897750038061</v>
       </c>
       <c r="T32">
-        <v>1.949764356633583E-05</v>
+        <v>0.0001341897750038061</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>0.02825429675555555</v>
+        <v>0.01576287980977778</v>
       </c>
       <c r="R33">
-        <v>0.2542886708</v>
+        <v>0.141865918288</v>
       </c>
       <c r="S33">
-        <v>8.947822844661922E-06</v>
+        <v>5.39402605053286E-06</v>
       </c>
       <c r="T33">
-        <v>8.947822844661922E-06</v>
+        <v>5.39402605053286E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>38.77100064460001</v>
+        <v>20.06441403031511</v>
       </c>
       <c r="R34">
-        <v>348.9390058014001</v>
+        <v>180.579726272836</v>
       </c>
       <c r="S34">
-        <v>0.01227834648582931</v>
+        <v>0.006866002486491236</v>
       </c>
       <c r="T34">
-        <v>0.01227834648582931</v>
+        <v>0.006866002486491236</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>1.035460782588889</v>
+        <v>0.285442513788</v>
       </c>
       <c r="R35">
-        <v>9.319147043300001</v>
+        <v>2.568982624092</v>
       </c>
       <c r="S35">
-        <v>0.0003279189613303187</v>
+        <v>9.767785924162058E-05</v>
       </c>
       <c r="T35">
-        <v>0.0003279189613303187</v>
+        <v>9.767785924162058E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>40.32178305424444</v>
+        <v>27.70902975960889</v>
       </c>
       <c r="R36">
-        <v>362.8960474882</v>
+        <v>249.38126783648</v>
       </c>
       <c r="S36">
-        <v>0.01276946209886922</v>
+        <v>0.009481974750934026</v>
       </c>
       <c r="T36">
-        <v>0.01276946209886922</v>
+        <v>0.009481974750934026</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>52.29698091626668</v>
+        <v>8.276055867809333</v>
       </c>
       <c r="R37">
-        <v>470.6728282464001</v>
+        <v>74.484502810284</v>
       </c>
       <c r="S37">
-        <v>0.01656187462734881</v>
+        <v>0.00283204982118418</v>
       </c>
       <c r="T37">
-        <v>0.01656187462734881</v>
+        <v>0.00283204982118418</v>
       </c>
     </row>
   </sheetData>
